--- a/02_MasterWifoMannheim/99_Backup/Course127.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course127.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811592D20B34CCBFE95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CFEDA3B-1ABA-4FF1-9261-E8425E0774D6}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>MAN 679 Eine wissenschaftliche Einführung in das Public und Nonprofit Management</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t>Das Modul stellt eine wissenschaftliche Einführung in das Management von öffentlichen und Nonprofit-Organisationen dar. Dabei erfolgt zunächst eine öffentlichen und des Nonprofit-Sektors. Im Herausforderungen im Management von öffentlichen und Bezug auf verschiedene Managementfunktionen (z. Marketing, etc.) eingegangen. Damit bietet das für das Management von öffentlichen und Nonprofit-Organisationen. Gleichzeitig werden die Besonderheiten im Vergleich zum Management Unternehmen herausgestellt. Die Erarbeitung der wissenschaftlichen Literatur im Bereich Public und auch eine Diskussion der methodologischen Vorgehensweisen in der und Nonprofit-Kontext.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Studierenden sollen nach Abschluss des Moduls in der Lage sein …die Relevanz des öffentlichen und des Nonprofit-Sektors einzuschätzen, …die Besonderheiten des Management von öffentlichen und Nonprofit-Organisationen zu erläutern, …wissenschaftliche Literatur aus den Bereichen Public und Nonprofit Management zu verstehen und kritisch zu beurteilen, …Thesen und Erkenntnisse in den Bereichen Public und Nonprofit Management zu diskutieren. Des Weiteren sollen Schlüsselqualifikationen wie Präsentationskompetenz, Arbeiten mit wissenschaftlichen Texten und Teamkompetenz erworben werden.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung: -</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudium Selbststudium Vorlesung 2 8 Übung 1</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Bernd Helmig</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FWS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>CG 1, CG 2, CG 3, CG 4, CG 5</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL, M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,138 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 679 Eine wissenschaftliche Einführung in das Public und Nonprofit Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Das Modul stellt eine wissenschaftliche Einführung in das Management von öffentlichen und Nonprofit-Organisationen dar. Dabei erfolgt zunächst eine öffentlichen und des Nonprofit-Sektors. Im Herausforderungen im Management von öffentlichen und Bezug auf verschiedene Managementfunktionen (z. Marketing, etc.) eingegangen. Damit bietet das für das Management von öffentlichen und Nonprofit-Organisationen. Gleichzeitig werden die Besonderheiten im Vergleich zum Management Unternehmen herausgestellt. Die Erarbeitung der wissenschaftlichen Literatur im Bereich Public und auch eine Diskussion der methodologischen Vorgehensweisen in der und Nonprofit-Kontext.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Studierenden sollen nach Abschluss des Moduls in der Lage sein …die Relevanz des öffentlichen und des Nonprofit-Sektors einzuschätzen, …die Besonderheiten des Management von öffentlichen und Nonprofit-Organisationen zu erläutern, …wissenschaftliche Literatur aus den Bereichen Public und Nonprofit Management zu verstehen und kritisch zu beurteilen, …Thesen und Erkenntnisse in den Bereichen Public und Nonprofit Management zu diskutieren. Des Weiteren sollen Schlüsselqualifikationen wie Präsentationskompetenz, Arbeiten mit wissenschaftlichen Texten und Teamkompetenz erworben werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudium Selbststudium Vorlesung 2 8 Übung 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Bernd Helmig</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CG 1, CG 2, CG 3, CG 4, CG 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL, M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
